--- a/Torque Magnético/Torque magnético.xlsx
+++ b/Torque Magnético/Torque magnético.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\Laboratorio-Intermedio\Torque Magnético\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6797DB-ADC4-4A6B-B30D-D86AC71510AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1C4D23-6ED9-4D0A-A0DA-71D3CAE52405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{FF35270E-6FDD-40FA-AA7C-6F588E936833}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FF35270E-6FDD-40FA-AA7C-6F588E936833}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>inc=0.025</t>
   </si>
@@ -68,19 +68,13 @@
     <t>long_var_meti=6.165</t>
   </si>
   <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I </t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>I</t>
+    <t>I (A)+-0,05A</t>
+  </si>
+  <si>
+    <t>T (s) +- 0,05s</t>
+  </si>
+  <si>
+    <t>d cm +-0,05cm</t>
   </si>
 </sst>
 </file>
@@ -454,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00423DC-2044-4D4F-BC53-6CCB26690364}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,17 +520,17 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -621,17 +615,17 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A2" sqref="A2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -723,18 +717,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11BFCA7E-8745-4732-9EE0-B877891CA310}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
